--- a/research_team_data.xlsx
+++ b/research_team_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ksuemailprod-my.sharepoint.com/personal/cgajji_ksu_edu/Documents/GitHub/App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgajji\OneDrive - Kansas State University\GitHub\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_367D95845B00DA0B8F7A2011595ED87656CD1BC4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CDD71929-FEDC-45B1-AB15-FA442B8829E8}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_367D95845B00DA0B8F7A2011595ED87656CD1BC4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{651DDEEB-87BA-49BC-99F3-5FD9577319A9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="83">
   <si>
     <t>Position</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Weed Science</t>
-  </si>
-  <si>
-    <t>Ethan Denson</t>
   </si>
   <si>
     <t>Faculty</t>
@@ -697,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,16 +989,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1009,16 +1006,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1026,16 +1023,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1046,13 +1043,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1060,16 +1057,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1077,16 +1074,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1094,16 +1091,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1111,16 +1108,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1128,16 +1125,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1145,7 +1142,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
@@ -1162,7 +1159,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
@@ -1179,7 +1176,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
@@ -1196,24 +1193,30 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>54</v>
@@ -1222,21 +1225,21 @@
         <v>9</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>55</v>
@@ -1244,31 +1247,25 @@
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1276,7 +1273,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>58</v>
@@ -1285,7 +1282,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1293,16 +1290,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1310,16 +1307,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1327,16 +1324,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1344,16 +1341,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1361,7 +1358,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>66</v>
@@ -1370,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1378,73 +1375,73 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="D41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1452,37 +1449,20 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/research_team_data.xlsx
+++ b/research_team_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgajji\OneDrive - Kansas State University\GitHub\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_367D95845B00DA0B8F7A2011595ED87656CD1BC4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{651DDEEB-87BA-49BC-99F3-5FD9577319A9}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_367D95845B00DA0B8F7A2011595ED87656CD1BC4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B9572816-4B13-4AF9-A1BA-5ABBE3B2F569}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="85">
   <si>
     <t>Position</t>
   </si>
@@ -70,15 +70,9 @@
     <t>Dr. Romulo Lollato</t>
   </si>
   <si>
-    <t>Cropping systems (wheat)</t>
-  </si>
-  <si>
     <t>Jazmin Gastaldi</t>
   </si>
   <si>
-    <t>Filed Coordinator</t>
-  </si>
-  <si>
     <t>Dr. Brian Northup</t>
   </si>
   <si>
@@ -257,6 +251,27 @@
   </si>
   <si>
     <t>July 31 2025</t>
+  </si>
+  <si>
+    <t>Sepetember 2019</t>
+  </si>
+  <si>
+    <t>August 2025 (will continue)</t>
+  </si>
+  <si>
+    <t>Updated till date</t>
+  </si>
+  <si>
+    <t>Cropping systems experiment</t>
+  </si>
+  <si>
+    <t>Fall 2019</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>Summer 2025</t>
   </si>
   <si>
     <r>
@@ -267,9 +282,8 @@
         <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t> </t>
     </r>
@@ -277,28 +291,18 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>ET partitioning, and ET modeling</t>
     </r>
-  </si>
-  <si>
-    <t>Sepetember 2019</t>
-  </si>
-  <si>
-    <t>August 2025 (will continue)</t>
-  </si>
-  <si>
-    <t>Updated till date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,18 +319,33 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -383,14 +402,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -696,773 +716,785 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="D42" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="C43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/research_team_data.xlsx
+++ b/research_team_data.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgajji\OneDrive - Kansas State University\GitHub\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_367D95845B00DA0B8F7A2011595ED87656CD1BC4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B9572816-4B13-4AF9-A1BA-5ABBE3B2F569}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_367D95845B00DA0B8F7A2011595ED87656CD1BC4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{58301D3A-D4C5-46C1-9682-E8369B82F8CF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Research_Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
   <si>
     <t>Position</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Oklahoma State University</t>
   </si>
   <si>
-    <t>El Reno/Cronos Data</t>
-  </si>
-  <si>
     <t>Cole Diggins</t>
   </si>
   <si>
@@ -187,15 +184,9 @@
     <t>Ashland/Soil Moisture</t>
   </si>
   <si>
-    <t>Sofia Cominelli</t>
-  </si>
-  <si>
     <t>Dr. Vara Prasad</t>
   </si>
   <si>
-    <t>Ashland/Cropping Systems</t>
-  </si>
-  <si>
     <t>Muazzamma Mushtaq</t>
   </si>
   <si>
@@ -242,15 +233,6 @@
   </si>
   <si>
     <t>biomass production and nutritive value of winter forage crops under different cropping systems</t>
-  </si>
-  <si>
-    <t>March 11 2025</t>
-  </si>
-  <si>
-    <t>June 30 2025</t>
-  </si>
-  <si>
-    <t>July 31 2025</t>
   </si>
   <si>
     <t>Sepetember 2019</t>
@@ -296,6 +278,42 @@
       </rPr>
       <t>ET partitioning, and ET modeling</t>
     </r>
+  </si>
+  <si>
+    <t>Cronos: Proximal, Integrated Soil-Plant-Atmosphere Meonitoring Systems</t>
+  </si>
+  <si>
+    <t>Long Term Effect of Tillage and Nitrogen Fertilizer Source on Soil Health</t>
+  </si>
+  <si>
+    <t>May 2020</t>
+  </si>
+  <si>
+    <t>March 11, 2025</t>
+  </si>
+  <si>
+    <t>August 2020</t>
+  </si>
+  <si>
+    <t>May 2023</t>
+  </si>
+  <si>
+    <t>August  2025</t>
+  </si>
+  <si>
+    <t>August 2025</t>
+  </si>
+  <si>
+    <t>June 30, 2025</t>
+  </si>
+  <si>
+    <t>August 12, 2025</t>
+  </si>
+  <si>
+    <t>July 2025</t>
+  </si>
+  <si>
+    <t>July 31, 2025</t>
   </si>
 </sst>
 </file>
@@ -402,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -411,6 +429,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -714,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,9 +750,9 @@
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="84.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -744,13 +768,13 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -767,9 +791,9 @@
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -784,9 +808,9 @@
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -801,9 +825,9 @@
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -816,16 +840,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -837,16 +861,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -862,9 +886,9 @@
       <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -876,374 +900,386 @@
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="D8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="D9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1251,132 +1287,146 @@
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="E31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>9</v>
@@ -1384,117 +1434,100 @@
       <c r="D37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/research_team_data.xlsx
+++ b/research_team_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgajji\OneDrive - Kansas State University\GitHub\App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ksuemailprod-my.sharepoint.com/personal/cgajji_ksu_edu/Documents/GitHub/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_367D95845B00DA0B8F7A2011595ED87656CD1BC4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{58301D3A-D4C5-46C1-9682-E8369B82F8CF}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_367D95845B00DA0B8F7A2011595ED87656CD1BC4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0275C549-356E-47B1-975C-3564730B75F4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
   <si>
     <t>Position</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>Dr. Eduardo Santos</t>
-  </si>
-  <si>
-    <t>Micrometeorology</t>
   </si>
   <si>
     <t>Sudipti Parajuli</t>
@@ -314,6 +311,18 @@
   </si>
   <si>
     <t>July 31, 2025</t>
+  </si>
+  <si>
+    <t>Micrometeorology - Quantifying near-surface soil evaporation using heat pulse probes</t>
+  </si>
+  <si>
+    <t>January 10, 2022</t>
+  </si>
+  <si>
+    <t>May 16, 2025</t>
+  </si>
+  <si>
+    <t>May 20, 2025</t>
   </si>
 </sst>
 </file>
@@ -740,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,16 +849,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -861,16 +870,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -901,16 +910,16 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -924,16 +933,16 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1270,16 +1279,16 @@
         <v>9</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1293,16 +1302,16 @@
         <v>9</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1319,7 +1328,7 @@
         <v>53</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -1335,16 +1344,16 @@
         <v>9</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1358,16 +1367,16 @@
         <v>9</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1432,50 +1441,62 @@
         <v>9</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1483,13 +1504,13 @@
         <v>33</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -1500,13 +1521,13 @@
         <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -1514,16 +1535,16 @@
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>

--- a/research_team_data.xlsx
+++ b/research_team_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ksuemailprod-my.sharepoint.com/personal/cgajji_ksu_edu/Documents/GitHub/App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgajji\OneDrive - Kansas State University\GitHub\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_367D95845B00DA0B8F7A2011595ED87656CD1BC4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0275C549-356E-47B1-975C-3564730B75F4}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_367D95845B00DA0B8F7A2011595ED87656CD1BC4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{875C05FE-6E36-48FC-AB65-33EE69EDC98B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="95">
   <si>
     <t>Position</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>May 20, 2025</t>
+  </si>
+  <si>
+    <t>May 2025</t>
   </si>
 </sst>
 </file>
@@ -749,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,8 +1333,12 @@
       <c r="E31" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
